--- a/9. Docs/10. Others/OTD-006 문서일람.xlsx
+++ b/9. Docs/10. Others/OTD-006 문서일람.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEOLT\Documents\Pre-Vision\9. Docs\10. Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849796D-0B6A-4398-9DCF-13AEB733CDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD5300-4553-49A4-9A09-09CA7C11A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{72846320-F162-4369-9366-357BB73D5DE9}"/>
+    <workbookView xWindow="2436" yWindow="1344" windowWidth="17280" windowHeight="9468" xr2:uid="{72846320-F162-4369-9366-357BB73D5DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>섹션</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,13 +794,342 @@
   <si>
     <t>OTD-005 윈도우 앱 컨버팅 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTD-007 기능적 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTD-008 비기능적 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTD-007</t>
+  </si>
+  <si>
+    <t>OTD-008</t>
+  </si>
+  <si>
+    <t>FL-005 웹 클라이언트 &amp; 서버 동작도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL-005</t>
+  </si>
+  <si>
+    <t>PT-003 프로젝트 최종 발표자료 ppt v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWD-005 종합 테스트 영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWD-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-003 회의록 2024.8.22</t>
+  </si>
+  <si>
+    <t>PD-002 회의록 2024.8.21</t>
+  </si>
+  <si>
+    <t>PD-004 회의록 2024.8.23</t>
+  </si>
+  <si>
+    <t>PD-005 회의록 2024.8.26</t>
+  </si>
+  <si>
+    <t>PD-006 회의록 2024.8.27</t>
+  </si>
+  <si>
+    <t>PD-007 회의록 2024.8.28</t>
+  </si>
+  <si>
+    <t>PD-008 회의록 2024.8.29</t>
+  </si>
+  <si>
+    <t>PD-009 회의록 2024.8.30</t>
+  </si>
+  <si>
+    <t>PD-010 회의록 2024.9.02</t>
+  </si>
+  <si>
+    <t>PD-011 회의록 2024.9.03</t>
+  </si>
+  <si>
+    <t>PD-012 회의록 2024.9.04</t>
+  </si>
+  <si>
+    <t>PD-013 회의록 2024.9.05</t>
+  </si>
+  <si>
+    <t>PD-014 회의록 2024.9.06</t>
+  </si>
+  <si>
+    <t>PD-015 회의록 2024.10.01</t>
+  </si>
+  <si>
+    <t>TPD-002 마무리 회의록 2024.8.21</t>
+  </si>
+  <si>
+    <t>TPD-003 마무리 회의록 2024.8.22</t>
+  </si>
+  <si>
+    <t>TPD-005 마무리 회의록 2024.8.26</t>
+  </si>
+  <si>
+    <t>TPD-006 마무리 회의록 2024.8.27</t>
+  </si>
+  <si>
+    <t>TPD-007 마무리 회의록 2024.8.28</t>
+  </si>
+  <si>
+    <t>TPD-008 마무리 회의록 2024.8.29</t>
+  </si>
+  <si>
+    <t>TPD-009 마무리 회의록 2024.8.30</t>
+  </si>
+  <si>
+    <t>TPD-010 마무리 회의록 2024.9.02</t>
+  </si>
+  <si>
+    <t>TPD-011 마무리 회의록 2024.9.03</t>
+  </si>
+  <si>
+    <t>TPD-012 마무리 회의록 2024.9.04</t>
+  </si>
+  <si>
+    <t>TPD-013 마무리 회의록 2024.9.05</t>
+  </si>
+  <si>
+    <t>TPD-014 마무리 회의록 2024.9.06</t>
+  </si>
+  <si>
+    <t>TPD-015 마무리 회의록 2024.9.09</t>
+  </si>
+  <si>
+    <t>TPD-016 마무리 회의록 2024.9.10</t>
+  </si>
+  <si>
+    <t>TPD-017 마무리 회의록 2024.9.11</t>
+  </si>
+  <si>
+    <t>TPD-018 마무리 회의록 2024.9.12</t>
+  </si>
+  <si>
+    <t>TPD-019 마무리 회의록 2024.9.23</t>
+  </si>
+  <si>
+    <t>TPD-020 마무리 회의록 2024.9.24</t>
+  </si>
+  <si>
+    <t>TPD-021 마무리 회의록 2024.9.25</t>
+  </si>
+  <si>
+    <t>TPD-022 마무리 회의록 2024.9.26</t>
+  </si>
+  <si>
+    <t>TPD-023 마무리 회의록 2024.9.27</t>
+  </si>
+  <si>
+    <t>TPD-024 마무리 회의록 2024.9.30</t>
+  </si>
+  <si>
+    <t>TPD-025 마무리 회의록 2024.10.01</t>
+  </si>
+  <si>
+    <t>TPD-026 마무리 회의록 2024.10.02</t>
+  </si>
+  <si>
+    <t>TPD-027 마무리 회의록 2024.10.07</t>
+  </si>
+  <si>
+    <t>TPD-028 마무리 회의록 2024.10.08</t>
+  </si>
+  <si>
+    <t>TPD-029 마무리 회의록 2024.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD-030 마무리 회의록 2024.10.11</t>
+  </si>
+  <si>
+    <t>TPD-031 마무리 회의록 2024.10.14</t>
+  </si>
+  <si>
+    <t>TPD-032 마무리 회의록 2024.10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-001 회의록 2024.8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-002</t>
+  </si>
+  <si>
+    <t>PD-003</t>
+  </si>
+  <si>
+    <t>PD-004</t>
+  </si>
+  <si>
+    <t>PD-005</t>
+  </si>
+  <si>
+    <t>PD-006</t>
+  </si>
+  <si>
+    <t>PD-007</t>
+  </si>
+  <si>
+    <t>PD-008</t>
+  </si>
+  <si>
+    <t>PD-009</t>
+  </si>
+  <si>
+    <t>PD-010</t>
+  </si>
+  <si>
+    <t>PD-011</t>
+  </si>
+  <si>
+    <t>PD-012</t>
+  </si>
+  <si>
+    <t>PD-013</t>
+  </si>
+  <si>
+    <t>PD-014</t>
+  </si>
+  <si>
+    <t>PD-015</t>
+  </si>
+  <si>
+    <t>TPD-002</t>
+  </si>
+  <si>
+    <t>TPD-003</t>
+  </si>
+  <si>
+    <t>TPD-005</t>
+  </si>
+  <si>
+    <t>TPD-006</t>
+  </si>
+  <si>
+    <t>TPD-007</t>
+  </si>
+  <si>
+    <t>TPD-008</t>
+  </si>
+  <si>
+    <t>TPD-009</t>
+  </si>
+  <si>
+    <t>TPD-001 마무리 회의록 2024.8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD-004</t>
+  </si>
+  <si>
+    <t>TPD-010</t>
+  </si>
+  <si>
+    <t>TPD-011</t>
+  </si>
+  <si>
+    <t>TPD-012</t>
+  </si>
+  <si>
+    <t>TPD-013</t>
+  </si>
+  <si>
+    <t>TPD-014</t>
+  </si>
+  <si>
+    <t>TPD-015</t>
+  </si>
+  <si>
+    <t>TPD-016</t>
+  </si>
+  <si>
+    <t>TPD-017</t>
+  </si>
+  <si>
+    <t>TPD-018</t>
+  </si>
+  <si>
+    <t>TPD-019</t>
+  </si>
+  <si>
+    <t>TPD-020</t>
+  </si>
+  <si>
+    <t>TPD-021</t>
+  </si>
+  <si>
+    <t>TPD-022</t>
+  </si>
+  <si>
+    <t>TPD-023</t>
+  </si>
+  <si>
+    <t>TPD-024</t>
+  </si>
+  <si>
+    <t>TPD-025</t>
+  </si>
+  <si>
+    <t>TPD-027</t>
+  </si>
+  <si>
+    <t>TPD-028</t>
+  </si>
+  <si>
+    <t>TPD-026</t>
+  </si>
+  <si>
+    <t>TPD-029</t>
+  </si>
+  <si>
+    <t>TPD-030</t>
+  </si>
+  <si>
+    <t>TPD-031</t>
+  </si>
+  <si>
+    <t>TPD-004 마무리 회의록 2024.8.23</t>
+  </si>
+  <si>
+    <t>TPD-032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +1145,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -825,7 +1163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -893,238 +1231,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,52 +1259,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1200,43 +1271,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,1692 +1600,2500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A82D82-A43A-471B-94A9-A23D7BAF8C2F}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15">
-        <v>45547</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="D2" s="10">
+        <v>45547</v>
+      </c>
+      <c r="E2" s="10">
         <v>45579</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E3" s="7">
         <v>45579</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>45575</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>45579</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>45576</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>45579</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>45575</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>45579</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="7">
         <v>45575</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="7">
         <v>45579</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="8">
         <v>45567</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="8">
         <v>45580</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="24">
-        <v>45547</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="32"/>
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="10">
+        <v>45547</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
-        <v>45547</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E10" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45580</v>
+      </c>
+      <c r="E11" s="8">
+        <v>45580</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="24">
-        <v>45547</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="10">
+        <v>45547</v>
+      </c>
+      <c r="E12" s="10">
         <v>45547</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E13" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E14" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E15" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E16" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E17" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E18" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E19" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E20" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E21" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="31"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E22" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="31"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E23" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="31"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E24" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="31"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E25" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="31"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E26" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="31"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E27" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="31"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E28" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="31"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E29" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="31"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E30" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="31"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="D31" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E31" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="31"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E32" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="31"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E33" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="31"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E34" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="31"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D35" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E35" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="31"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="D36" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E36" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="31"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="D37" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E37" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="D38" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E38" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="31"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E39" s="9">
+      <c r="D39" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E39" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="31"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E40" s="9">
+      <c r="D40" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E40" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="31"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="D41" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E41" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="31"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E42" s="9">
+      <c r="D42" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E42" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="31"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="D43" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E43" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="31"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E44" s="9">
+      <c r="D44" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E44" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="31"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="D45" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E45" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="31"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E46" s="9">
+      <c r="D46" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E46" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="31"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="D47" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E47" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="31"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E48" s="9">
+      <c r="D48" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E48" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="31"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="D49" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E49" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="31"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="D50" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E50" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="31"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="D51" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E51" s="7">
         <v>45580</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="31"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E52" s="9">
+      <c r="D52" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E52" s="7">
         <v>45547</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="31"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="D53" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E53" s="7">
         <v>45565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="31"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="7">
         <v>45572</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <v>45572</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="32"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="8">
         <v>45579</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>45579</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="10">
         <v>45567</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="10">
         <v>45567</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="31"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="7">
         <v>45548</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>45548</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="31"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="7">
         <v>45566</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>45566</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="32"/>
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="13"/>
+      <c r="B59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="7">
         <v>45548</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="7">
         <v>45548</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
+    <row r="60" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="14"/>
+      <c r="B60" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="8">
+        <v>45580</v>
+      </c>
+      <c r="E60" s="8">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="10">
+        <v>45547</v>
+      </c>
+      <c r="E61" s="10">
+        <v>45579</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="24">
-        <v>45547</v>
-      </c>
-      <c r="E62" s="8">
+      <c r="A62" s="13"/>
+      <c r="B62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E62" s="7">
         <v>45579</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" s="31"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E63" s="9">
+        <v>121</v>
+      </c>
+      <c r="D63" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="14"/>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="8">
+        <v>45547</v>
+      </c>
+      <c r="E64" s="8">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="10">
+        <v>45548</v>
+      </c>
+      <c r="E65" s="10">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="13"/>
+      <c r="B66" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="7">
+        <v>45548</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="13"/>
+      <c r="B67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="13"/>
+      <c r="B68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="13"/>
+      <c r="B69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="13"/>
+      <c r="B70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="13"/>
+      <c r="B71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="13"/>
+      <c r="B72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="13"/>
+      <c r="B73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="13"/>
+      <c r="B74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="13"/>
+      <c r="B75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="13"/>
+      <c r="B76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="13"/>
+      <c r="B77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="13"/>
+      <c r="B78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="13"/>
+      <c r="B79" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="13"/>
+      <c r="B80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="13"/>
+      <c r="B81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="13"/>
+      <c r="B82" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="13"/>
+      <c r="B83" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="13"/>
+      <c r="B84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="13"/>
+      <c r="B85" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="13"/>
+      <c r="B86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="7">
+        <v>45562</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="13"/>
+      <c r="B87" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="7">
+        <v>45565</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="13"/>
+      <c r="B88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="7">
+        <v>45565</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="13"/>
+      <c r="B89" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="7">
+        <v>45565</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="13"/>
+      <c r="B90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="7">
+        <v>45565</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="13"/>
+      <c r="B91" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="7">
+        <v>45565</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="14"/>
+      <c r="B92" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="8">
+        <v>45580</v>
+      </c>
+      <c r="E92" s="8">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" s="10">
+        <v>45547</v>
+      </c>
+      <c r="E93" s="10">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="13"/>
+      <c r="B94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="13"/>
+      <c r="B95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="13"/>
+      <c r="B96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="13"/>
+      <c r="B97" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="14"/>
+      <c r="B98" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="8">
+        <v>45547</v>
+      </c>
+      <c r="E98" s="8">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="10">
+        <v>45547</v>
+      </c>
+      <c r="E99" s="10">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="13"/>
+      <c r="B100" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="7">
+        <v>45567</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" s="13"/>
+      <c r="B101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" s="13"/>
+      <c r="B102" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="7">
+        <v>45572</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" s="13"/>
+      <c r="B103" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="13"/>
+      <c r="B104" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" s="13"/>
+      <c r="B105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" s="13"/>
+      <c r="B106" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" s="13"/>
+      <c r="B107" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="7">
+        <v>45580</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="14"/>
+      <c r="B108" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D108" s="8">
+        <v>45580</v>
+      </c>
+      <c r="E108" s="8">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" s="10">
+        <v>45566</v>
+      </c>
+      <c r="E109" s="10">
         <v>45579</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" s="31"/>
-      <c r="B64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E64" s="9">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="32"/>
-      <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="12">
-        <v>45547</v>
-      </c>
-      <c r="E65" s="10">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="24">
-        <v>45548</v>
-      </c>
-      <c r="E66" s="8">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110" s="13"/>
+      <c r="B110" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" s="7">
+        <v>45567</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" s="13"/>
+      <c r="B111" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111" s="7">
+        <v>45579</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" s="13"/>
+      <c r="B112" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" s="7">
+        <v>45579</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="14"/>
+      <c r="B113" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" s="8">
+        <v>45580</v>
+      </c>
+      <c r="E113" s="8">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" s="10">
+        <v>45524</v>
+      </c>
+      <c r="E114" s="10">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115" s="13"/>
+      <c r="B115" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="7">
+        <v>45525</v>
+      </c>
+      <c r="E115" s="7">
+        <f>D115</f>
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" s="13"/>
+      <c r="B116" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="7">
+        <v>45526</v>
+      </c>
+      <c r="E116" s="7">
+        <f>D116</f>
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" s="13"/>
+      <c r="B117" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="7">
+        <v>45527</v>
+      </c>
+      <c r="E117" s="7">
+        <f t="shared" ref="E117:E160" si="0">D117</f>
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" s="13"/>
+      <c r="B118" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="7">
+        <v>45530</v>
+      </c>
+      <c r="E118" s="7">
+        <f t="shared" si="0"/>
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" s="13"/>
+      <c r="B119" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="7">
+        <v>45531</v>
+      </c>
+      <c r="E119" s="7">
+        <f t="shared" si="0"/>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" s="13"/>
+      <c r="B120" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" s="7">
+        <v>45532</v>
+      </c>
+      <c r="E120" s="7">
+        <f t="shared" si="0"/>
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121" s="13"/>
+      <c r="B121" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" s="7">
+        <v>45533</v>
+      </c>
+      <c r="E121" s="7">
+        <f t="shared" si="0"/>
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122" s="13"/>
+      <c r="B122" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="7">
+        <v>45534</v>
+      </c>
+      <c r="E122" s="7">
+        <f t="shared" si="0"/>
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" s="13"/>
+      <c r="B123" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" s="7">
+        <v>45537</v>
+      </c>
+      <c r="E123" s="7">
+        <f t="shared" si="0"/>
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124" s="13"/>
+      <c r="B124" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" s="7">
+        <v>45538</v>
+      </c>
+      <c r="E124" s="7">
+        <f t="shared" si="0"/>
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125" s="13"/>
+      <c r="B125" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="7">
+        <v>45539</v>
+      </c>
+      <c r="E125" s="7">
+        <f t="shared" si="0"/>
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" s="13"/>
+      <c r="B126" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="7">
+        <v>45540</v>
+      </c>
+      <c r="E126" s="7">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" s="13"/>
+      <c r="B127" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="7">
+        <v>45541</v>
+      </c>
+      <c r="E127" s="7">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" s="13"/>
+      <c r="B128" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="7">
+        <v>45566</v>
+      </c>
+      <c r="E128" s="7">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" s="13"/>
+      <c r="B129" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="7">
+        <v>45524</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="0"/>
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" s="13"/>
+      <c r="B130" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="7">
+        <v>45525</v>
+      </c>
+      <c r="E130" s="7">
+        <f t="shared" si="0"/>
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" s="13"/>
+      <c r="B131" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D131" s="7">
+        <v>45526</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="0"/>
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" s="13"/>
+      <c r="B132" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D132" s="7">
+        <v>45527</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="0"/>
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" s="13"/>
+      <c r="B133" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" s="7">
+        <v>45530</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="0"/>
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" s="13"/>
+      <c r="B134" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D134" s="7">
+        <v>45531</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="0"/>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135" s="13"/>
+      <c r="B135" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D135" s="7">
+        <v>45532</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="0"/>
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" s="13"/>
+      <c r="B136" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D136" s="7">
+        <v>45533</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" si="0"/>
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" s="13"/>
+      <c r="B137" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D137" s="7">
+        <v>45534</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" si="0"/>
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138" s="13"/>
+      <c r="B138" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" s="7">
+        <v>45537</v>
+      </c>
+      <c r="E138" s="7">
+        <f t="shared" si="0"/>
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" s="13"/>
+      <c r="B139" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D139" s="7">
+        <v>45538</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" si="0"/>
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" s="13"/>
+      <c r="B140" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D140" s="7">
+        <v>45539</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" si="0"/>
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="13"/>
+      <c r="B141" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D141" s="7">
+        <v>45540</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="13"/>
+      <c r="B142" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D142" s="7">
+        <v>45541</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" s="13"/>
+      <c r="B143" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D143" s="7">
+        <v>45544</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" si="0"/>
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144" s="13"/>
+      <c r="B144" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D144" s="7">
+        <v>45545</v>
+      </c>
+      <c r="E144" s="7">
+        <f t="shared" si="0"/>
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="13"/>
+      <c r="B145" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145" s="7">
+        <v>45546</v>
+      </c>
+      <c r="E145" s="7">
+        <f t="shared" si="0"/>
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="13"/>
+      <c r="B146" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D146" s="7">
+        <v>45547</v>
+      </c>
+      <c r="E146" s="7">
+        <f t="shared" si="0"/>
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="13"/>
+      <c r="B147" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" s="7">
+        <v>45558</v>
+      </c>
+      <c r="E147" s="7">
+        <f t="shared" si="0"/>
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="13"/>
+      <c r="B148" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D148" s="7">
         <v>45559</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="31"/>
-      <c r="B67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="11">
-        <v>45548</v>
-      </c>
-      <c r="E67" s="9">
+      <c r="E148" s="7">
+        <f t="shared" si="0"/>
         <v>45559</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="31"/>
-      <c r="B68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E68" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" s="31"/>
-      <c r="B69" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E69" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" s="31"/>
-      <c r="B70" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E70" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="31"/>
-      <c r="B71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E71" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" s="31"/>
-      <c r="B72" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E72" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="31"/>
-      <c r="B73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E73" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="31"/>
-      <c r="B74" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E74" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="31"/>
-      <c r="B75" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E75" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="31"/>
-      <c r="B76" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E76" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="31"/>
-      <c r="B77" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E77" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="31"/>
-      <c r="B78" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E78" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="31"/>
-      <c r="B79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E79" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" s="31"/>
-      <c r="B80" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="11">
-        <v>45580</v>
-      </c>
-      <c r="E80" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="31"/>
-      <c r="B81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="11">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="13"/>
+      <c r="B149" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D149" s="7">
+        <v>45560</v>
+      </c>
+      <c r="E149" s="7">
+        <f t="shared" si="0"/>
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="13"/>
+      <c r="B150" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D150" s="7">
+        <v>45561</v>
+      </c>
+      <c r="E150" s="7">
+        <f t="shared" si="0"/>
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="13"/>
+      <c r="B151" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D151" s="7">
         <v>45562</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E151" s="7">
+        <f t="shared" si="0"/>
         <v>45562</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="31"/>
-      <c r="B82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="11">
-        <v>45562</v>
-      </c>
-      <c r="E82" s="9">
-        <v>45562</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="31"/>
-      <c r="B83" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="11">
-        <v>45562</v>
-      </c>
-      <c r="E83" s="9">
-        <v>45562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="31"/>
-      <c r="B84" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="11">
-        <v>45562</v>
-      </c>
-      <c r="E84" s="9">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="13"/>
+      <c r="B152" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D152" s="7">
         <v>45565</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="31"/>
-      <c r="B85" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="11">
-        <v>45562</v>
-      </c>
-      <c r="E85" s="9">
+      <c r="E152" s="7">
+        <f t="shared" si="0"/>
         <v>45565</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="31"/>
-      <c r="B86" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="11">
-        <v>45562</v>
-      </c>
-      <c r="E86" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="31"/>
-      <c r="B87" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="11">
-        <v>45562</v>
-      </c>
-      <c r="E87" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="31"/>
-      <c r="B88" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="11">
-        <v>45565</v>
-      </c>
-      <c r="E88" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="31"/>
-      <c r="B89" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" s="11">
-        <v>45565</v>
-      </c>
-      <c r="E89" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="31"/>
-      <c r="B90" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="11">
-        <v>45565</v>
-      </c>
-      <c r="E90" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="31"/>
-      <c r="B91" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="11">
-        <v>45565</v>
-      </c>
-      <c r="E91" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="31"/>
-      <c r="B92" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="11">
-        <v>45565</v>
-      </c>
-      <c r="E92" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="32"/>
-      <c r="B93" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="12">
-        <v>45580</v>
-      </c>
-      <c r="E93" s="10">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D94" s="24">
-        <v>45547</v>
-      </c>
-      <c r="E94" s="8">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="31"/>
-      <c r="B95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D95" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E95" s="9">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="31"/>
-      <c r="B96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E96" s="9">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="31"/>
-      <c r="B97" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E97" s="9">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="31"/>
-      <c r="B98" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E98" s="9">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="13"/>
+      <c r="B153" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D153" s="7">
         <v>45566</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="32"/>
-      <c r="B99" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="12">
-        <v>45547</v>
-      </c>
-      <c r="E99" s="10">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="24">
-        <v>45547</v>
-      </c>
-      <c r="E100" s="8">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="31"/>
-      <c r="B101" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D101" s="11">
+      <c r="E153" s="7">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="13"/>
+      <c r="B154" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D154" s="7">
         <v>45567</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E154" s="7">
+        <f t="shared" si="0"/>
         <v>45567</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" s="31"/>
-      <c r="B102" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D102" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E102" s="9">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="31"/>
-      <c r="B103" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="11">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155" s="13"/>
+      <c r="B155" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D155" s="7">
         <v>45572</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E155" s="7">
+        <f t="shared" si="0"/>
         <v>45572</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="31"/>
-      <c r="B104" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E104" s="9">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="31"/>
-      <c r="B105" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D105" s="11">
-        <v>45547</v>
-      </c>
-      <c r="E105" s="9">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="34"/>
-      <c r="B106" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D106" s="20">
-        <v>45580</v>
-      </c>
-      <c r="E106" s="20">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="32"/>
-      <c r="B107" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D107" s="20">
-        <v>45580</v>
-      </c>
-      <c r="E107" s="10">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" s="11">
-        <v>45566</v>
-      </c>
-      <c r="E108" s="8">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="13"/>
+      <c r="B156" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="7">
+        <v>45573</v>
+      </c>
+      <c r="E156" s="7">
+        <f t="shared" si="0"/>
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="13"/>
+      <c r="B157" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="7">
+        <v>45575</v>
+      </c>
+      <c r="E157" s="7">
+        <f t="shared" si="0"/>
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="13"/>
+      <c r="B158" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D158" s="7">
+        <v>45576</v>
+      </c>
+      <c r="E158" s="7">
+        <f t="shared" si="0"/>
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="13"/>
+      <c r="B159" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D159" s="7">
         <v>45579</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="36"/>
-      <c r="B109" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D109" s="11">
-        <v>45567</v>
-      </c>
-      <c r="E109" s="9">
+      <c r="E159" s="7">
+        <f t="shared" si="0"/>
         <v>45579</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="36"/>
-      <c r="B110" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D110" s="11">
-        <v>45579</v>
-      </c>
-      <c r="E110" s="9">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="37"/>
-      <c r="B111" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="12">
-        <v>45579</v>
-      </c>
-      <c r="E111" s="10">
+    <row r="160" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="14"/>
+      <c r="B160" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D160" s="8">
+        <v>45580</v>
+      </c>
+      <c r="E160" s="8">
+        <f t="shared" si="0"/>
         <v>45580</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="10">
+    <mergeCell ref="A114:A160"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A93:A98"/>
     <mergeCell ref="A12:A55"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A66:A93"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A92"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="A109:A113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
